--- a/data_year/zb/文化/艺术表演团体基本情况/艺术表演团体国内演出农村观众人次.xlsx
+++ b/data_year/zb/文化/艺术表演团体基本情况/艺术表演团体国内演出农村观众人次.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V14"/>
+  <dimension ref="A1:V13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -543,755 +543,675 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>2008年</t>
+          <t>2010年</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2618</v>
+        <v>1039</v>
       </c>
       <c r="C2" t="n">
-        <v>262</v>
+        <v>1254</v>
       </c>
       <c r="D2" t="n">
-        <v>6563</v>
+        <v>10889</v>
       </c>
       <c r="E2" t="n">
-        <v>114361</v>
+        <v>247261</v>
       </c>
       <c r="F2" t="n">
-        <v>126022</v>
+        <v>242899</v>
       </c>
       <c r="G2" t="n">
-        <v>328547</v>
+        <v>467793</v>
       </c>
       <c r="H2" t="n">
-        <v>241199</v>
+        <v>267716</v>
       </c>
       <c r="I2" t="n">
-        <v>65942</v>
+        <v>62134</v>
       </c>
       <c r="J2" t="n">
-        <v>261370</v>
+        <v>354438</v>
       </c>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
       <c r="M2" t="n">
-        <v>290558</v>
+        <v>320777</v>
       </c>
       <c r="N2" t="n">
-        <v>23995</v>
+        <v>24413</v>
       </c>
       <c r="O2" t="n">
-        <v>32965</v>
+        <v>47103</v>
       </c>
       <c r="P2" t="n">
-        <v>5467</v>
+        <v>10719</v>
       </c>
       <c r="Q2" t="n">
-        <v>33024</v>
+        <v>45864</v>
       </c>
       <c r="R2" t="n">
-        <v>19473</v>
+        <v>32710</v>
       </c>
       <c r="S2" t="n">
-        <v>43167</v>
+        <v>75579</v>
       </c>
       <c r="T2" t="n">
-        <v>416580</v>
+        <v>563676</v>
       </c>
       <c r="U2" t="n">
-        <v>16330</v>
+        <v>4306</v>
       </c>
       <c r="V2" t="n">
-        <v>61020</v>
+        <v>48699</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>2009年</t>
+          <t>2011年</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>637</v>
+        <v>1258.51</v>
       </c>
       <c r="C3" t="n">
-        <v>285</v>
+        <v>1456.06</v>
       </c>
       <c r="D3" t="n">
-        <v>10911</v>
+        <v>9412.77</v>
       </c>
       <c r="E3" t="n">
-        <v>211382</v>
+        <v>164717.72</v>
       </c>
       <c r="F3" t="n">
-        <v>213984</v>
+        <v>169567.49</v>
       </c>
       <c r="G3" t="n">
-        <v>427334</v>
+        <v>349590.41</v>
       </c>
       <c r="H3" t="n">
-        <v>247114</v>
+        <v>241328.73</v>
       </c>
       <c r="I3" t="n">
-        <v>67503</v>
+        <v>63247.99</v>
       </c>
       <c r="J3" t="n">
-        <v>355604</v>
-      </c>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr"/>
+        <v>294274.39</v>
+      </c>
+      <c r="K3" t="n">
+        <v>261200</v>
+      </c>
+      <c r="L3" t="n">
+        <v>178035.22</v>
+      </c>
       <c r="M3" t="n">
-        <v>301907</v>
+        <v>269667.73</v>
       </c>
       <c r="N3" t="n">
-        <v>22335</v>
+        <v>19675.38</v>
       </c>
       <c r="O3" t="n">
-        <v>44871</v>
+        <v>15744.03</v>
       </c>
       <c r="P3" t="n">
-        <v>7326</v>
+        <v>8844.200000000001</v>
       </c>
       <c r="Q3" t="n">
-        <v>45391</v>
+        <v>41941.64</v>
       </c>
       <c r="R3" t="n">
-        <v>20417</v>
+        <v>25138.31</v>
       </c>
       <c r="S3" t="n">
-        <v>37216</v>
+        <v>54036.81</v>
       </c>
       <c r="T3" t="n">
-        <v>515891</v>
+        <v>439235.22</v>
       </c>
       <c r="U3" t="n">
-        <v>2863</v>
+        <v>3262.72</v>
       </c>
       <c r="V3" t="n">
-        <v>57395</v>
+        <v>33188.77</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>2010年</t>
+          <t>2012年</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1039</v>
+        <v>122.8</v>
       </c>
       <c r="C4" t="n">
-        <v>1254</v>
+        <v>1056.08</v>
       </c>
       <c r="D4" t="n">
-        <v>10889</v>
+        <v>10734.11</v>
       </c>
       <c r="E4" t="n">
-        <v>247261</v>
+        <v>235697.79</v>
       </c>
       <c r="F4" t="n">
-        <v>242899</v>
+        <v>291728.45</v>
       </c>
       <c r="G4" t="n">
-        <v>467793</v>
+        <v>440560.49</v>
       </c>
       <c r="H4" t="n">
-        <v>267716</v>
+        <v>258311.95</v>
       </c>
       <c r="I4" t="n">
-        <v>62134</v>
+        <v>63525.36</v>
       </c>
       <c r="J4" t="n">
-        <v>354438</v>
-      </c>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
+        <v>344759.75</v>
+      </c>
+      <c r="K4" t="n">
+        <v>202470.57</v>
+      </c>
+      <c r="L4" t="n">
+        <v>318553.77</v>
+      </c>
       <c r="M4" t="n">
-        <v>320777</v>
+        <v>229295.87</v>
       </c>
       <c r="N4" t="n">
-        <v>24413</v>
+        <v>17220.88</v>
       </c>
       <c r="O4" t="n">
-        <v>47103</v>
+        <v>46086.06</v>
       </c>
       <c r="P4" t="n">
-        <v>10719</v>
+        <v>11157.6</v>
       </c>
       <c r="Q4" t="n">
-        <v>45864</v>
+        <v>40845.95</v>
       </c>
       <c r="R4" t="n">
-        <v>32710</v>
+        <v>16815.71</v>
       </c>
       <c r="S4" t="n">
-        <v>75579</v>
+        <v>48378.17</v>
       </c>
       <c r="T4" t="n">
-        <v>563676</v>
+        <v>521024.34</v>
       </c>
       <c r="U4" t="n">
-        <v>4306</v>
+        <v>11519.88</v>
       </c>
       <c r="V4" t="n">
-        <v>48699</v>
+        <v>27014.58</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>2011年</t>
+          <t>2013年</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1258.51</v>
-      </c>
-      <c r="C5" t="n">
-        <v>1456.06</v>
-      </c>
-      <c r="D5" t="n">
-        <v>9412.77</v>
-      </c>
+        <v>866.3</v>
+      </c>
+      <c r="C5" t="inlineStr"/>
+      <c r="D5" t="inlineStr"/>
       <c r="E5" t="n">
-        <v>164717.72</v>
+        <v>313091.96</v>
       </c>
       <c r="F5" t="n">
-        <v>169567.49</v>
+        <v>298789.27</v>
       </c>
       <c r="G5" t="n">
-        <v>349590.41</v>
+        <v>459838.77</v>
       </c>
       <c r="H5" t="n">
-        <v>241328.73</v>
+        <v>190682.57</v>
       </c>
       <c r="I5" t="n">
-        <v>63247.99</v>
-      </c>
-      <c r="J5" t="n">
-        <v>294274.39</v>
-      </c>
+        <v>50769.78</v>
+      </c>
+      <c r="J5" t="inlineStr"/>
       <c r="K5" t="n">
-        <v>261200</v>
+        <v>183586.79</v>
       </c>
       <c r="L5" t="n">
-        <v>178035.22</v>
+        <v>346147.58</v>
       </c>
       <c r="M5" t="n">
-        <v>269667.73</v>
-      </c>
-      <c r="N5" t="n">
-        <v>19675.38</v>
-      </c>
-      <c r="O5" t="n">
-        <v>15744.03</v>
-      </c>
-      <c r="P5" t="n">
-        <v>8844.200000000001</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>41941.64</v>
-      </c>
+        <v>230945.1</v>
+      </c>
+      <c r="N5" t="inlineStr"/>
+      <c r="O5" t="inlineStr"/>
+      <c r="P5" t="inlineStr"/>
+      <c r="Q5" t="inlineStr"/>
       <c r="R5" t="n">
-        <v>25138.31</v>
-      </c>
-      <c r="S5" t="n">
-        <v>54036.81</v>
-      </c>
+        <v>18259.52</v>
+      </c>
+      <c r="S5" t="inlineStr"/>
       <c r="T5" t="n">
-        <v>439235.22</v>
-      </c>
-      <c r="U5" t="n">
-        <v>3262.72</v>
-      </c>
+        <v>529734.37</v>
+      </c>
+      <c r="U5" t="inlineStr"/>
       <c r="V5" t="n">
-        <v>33188.77</v>
+        <v>25959.82</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2012年</t>
+          <t>2014年</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>122.8</v>
-      </c>
-      <c r="C6" t="n">
-        <v>1056.08</v>
-      </c>
-      <c r="D6" t="n">
-        <v>10734.11</v>
-      </c>
+        <v>752.76</v>
+      </c>
+      <c r="C6" t="inlineStr"/>
+      <c r="D6" t="inlineStr"/>
       <c r="E6" t="n">
-        <v>235697.79</v>
+        <v>355384.81</v>
       </c>
       <c r="F6" t="n">
-        <v>291728.45</v>
+        <v>337900.21</v>
       </c>
       <c r="G6" t="n">
-        <v>440560.49</v>
+        <v>492609.65</v>
       </c>
       <c r="H6" t="n">
-        <v>258311.95</v>
+        <v>181341.81</v>
       </c>
       <c r="I6" t="n">
-        <v>63525.36</v>
-      </c>
-      <c r="J6" t="n">
-        <v>344759.75</v>
-      </c>
+        <v>50672.82</v>
+      </c>
+      <c r="J6" t="inlineStr"/>
       <c r="K6" t="n">
-        <v>202470.57</v>
+        <v>169858.44</v>
       </c>
       <c r="L6" t="n">
-        <v>318553.77</v>
+        <v>388768.22</v>
       </c>
       <c r="M6" t="n">
-        <v>229295.87</v>
-      </c>
-      <c r="N6" t="n">
-        <v>17220.88</v>
-      </c>
-      <c r="O6" t="n">
-        <v>46086.06</v>
-      </c>
-      <c r="P6" t="n">
-        <v>11157.6</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>40845.95</v>
-      </c>
+        <v>220726.44</v>
+      </c>
+      <c r="N6" t="inlineStr"/>
+      <c r="O6" t="inlineStr"/>
+      <c r="P6" t="inlineStr"/>
+      <c r="Q6" t="inlineStr"/>
       <c r="R6" t="n">
-        <v>16815.71</v>
-      </c>
-      <c r="S6" t="n">
-        <v>48378.17</v>
-      </c>
+        <v>14591.43</v>
+      </c>
+      <c r="S6" t="inlineStr"/>
       <c r="T6" t="n">
-        <v>521024.34</v>
-      </c>
-      <c r="U6" t="n">
-        <v>11519.88</v>
-      </c>
+        <v>558626.66</v>
+      </c>
+      <c r="U6" t="inlineStr"/>
       <c r="V6" t="n">
-        <v>27014.58</v>
+        <v>21900.04</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>2013年</t>
+          <t>2015年</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>866.3</v>
+        <v>506.8</v>
       </c>
       <c r="C7" t="inlineStr"/>
       <c r="D7" t="inlineStr"/>
       <c r="E7" t="n">
-        <v>313091.96</v>
+        <v>377784.5</v>
       </c>
       <c r="F7" t="n">
-        <v>298789.27</v>
+        <v>362084.99</v>
       </c>
       <c r="G7" t="n">
-        <v>459838.77</v>
+        <v>519533.9</v>
       </c>
       <c r="H7" t="n">
-        <v>190682.57</v>
+        <v>184751.01</v>
       </c>
       <c r="I7" t="n">
-        <v>50769.78</v>
+        <v>47535.67</v>
       </c>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="n">
-        <v>183586.79</v>
+        <v>170535.89</v>
       </c>
       <c r="L7" t="n">
-        <v>346147.58</v>
+        <v>414000.99</v>
       </c>
       <c r="M7" t="n">
-        <v>230945.1</v>
+        <v>222451.88</v>
       </c>
       <c r="N7" t="inlineStr"/>
       <c r="O7" t="inlineStr"/>
       <c r="P7" t="inlineStr"/>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="n">
-        <v>18259.52</v>
+        <v>16960.53</v>
       </c>
       <c r="S7" t="inlineStr"/>
       <c r="T7" t="n">
-        <v>529734.37</v>
+        <v>584536.88</v>
       </c>
       <c r="U7" t="inlineStr"/>
       <c r="V7" t="n">
-        <v>25959.82</v>
+        <v>22001.37</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2014年</t>
+          <t>2016年</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>752.76</v>
+        <v>524.78</v>
       </c>
       <c r="C8" t="inlineStr"/>
       <c r="D8" t="inlineStr"/>
       <c r="E8" t="n">
-        <v>355384.81</v>
+        <v>416360.8</v>
       </c>
       <c r="F8" t="n">
-        <v>337900.21</v>
+        <v>398948.24</v>
       </c>
       <c r="G8" t="n">
-        <v>492609.65</v>
+        <v>563444.05</v>
       </c>
       <c r="H8" t="n">
-        <v>181341.81</v>
+        <v>182176.71</v>
       </c>
       <c r="I8" t="n">
-        <v>50672.82</v>
+        <v>44514.85</v>
       </c>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="n">
-        <v>169858.44</v>
+        <v>167632.56</v>
       </c>
       <c r="L8" t="n">
-        <v>388768.22</v>
+        <v>452888.58</v>
       </c>
       <c r="M8" t="n">
-        <v>220726.44</v>
+        <v>221572.89</v>
       </c>
       <c r="N8" t="inlineStr"/>
       <c r="O8" t="inlineStr"/>
       <c r="P8" t="inlineStr"/>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="n">
-        <v>14591.43</v>
+        <v>12037.47</v>
       </c>
       <c r="S8" t="inlineStr"/>
       <c r="T8" t="n">
-        <v>558626.66</v>
+        <v>620521.14</v>
       </c>
       <c r="U8" t="inlineStr"/>
       <c r="V8" t="n">
-        <v>21900.04</v>
+        <v>21983.62</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>2015年</t>
+          <t>2017年</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>506.8</v>
+        <v>173.52</v>
       </c>
       <c r="C9" t="inlineStr"/>
       <c r="D9" t="inlineStr"/>
       <c r="E9" t="n">
-        <v>377784.5</v>
+        <v>623179.24</v>
       </c>
       <c r="F9" t="n">
-        <v>362084.99</v>
+        <v>606353.92</v>
       </c>
       <c r="G9" t="n">
-        <v>519533.9</v>
+        <v>775007.97</v>
       </c>
       <c r="H9" t="n">
-        <v>184751.01</v>
+        <v>185292.88</v>
       </c>
       <c r="I9" t="n">
-        <v>47535.67</v>
+        <v>42249.32</v>
       </c>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="n">
-        <v>170535.89</v>
+        <v>167537.73</v>
       </c>
       <c r="L9" t="n">
-        <v>414000.99</v>
+        <v>662026.14</v>
       </c>
       <c r="M9" t="n">
-        <v>222451.88</v>
+        <v>223209.95</v>
       </c>
       <c r="N9" t="inlineStr"/>
       <c r="O9" t="inlineStr"/>
       <c r="P9" t="inlineStr"/>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="n">
-        <v>16960.53</v>
+        <v>12133.06</v>
       </c>
       <c r="S9" t="inlineStr"/>
       <c r="T9" t="n">
-        <v>584536.88</v>
+        <v>829563.87</v>
       </c>
       <c r="U9" t="inlineStr"/>
       <c r="V9" t="n">
-        <v>22001.37</v>
+        <v>21091.75</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>2016年</t>
+          <t>2018年</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>524.78</v>
+        <v>330</v>
       </c>
       <c r="C10" t="inlineStr"/>
       <c r="D10" t="inlineStr"/>
       <c r="E10" t="n">
-        <v>416360.8</v>
+        <v>574460</v>
       </c>
       <c r="F10" t="n">
-        <v>398948.24</v>
+        <v>558710</v>
       </c>
       <c r="G10" t="n">
-        <v>563444.05</v>
+        <v>724120</v>
       </c>
       <c r="H10" t="n">
-        <v>182176.71</v>
+        <v>181990</v>
       </c>
       <c r="I10" t="n">
-        <v>44514.85</v>
+        <v>41430</v>
       </c>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="n">
-        <v>167632.56</v>
+        <v>163110</v>
       </c>
       <c r="L10" t="n">
-        <v>452888.58</v>
+        <v>615860</v>
       </c>
       <c r="M10" t="n">
-        <v>221572.89</v>
+        <v>220270</v>
       </c>
       <c r="N10" t="inlineStr"/>
       <c r="O10" t="inlineStr"/>
       <c r="P10" t="inlineStr"/>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="n">
-        <v>12037.47</v>
+        <v>13100</v>
       </c>
       <c r="S10" t="inlineStr"/>
       <c r="T10" t="n">
-        <v>620521.14</v>
+        <v>778980</v>
       </c>
       <c r="U10" t="inlineStr"/>
       <c r="V10" t="n">
-        <v>21983.62</v>
+        <v>22530</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>2017年</t>
+          <t>2019年</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>173.52</v>
+        <v>230</v>
       </c>
       <c r="C11" t="inlineStr"/>
       <c r="D11" t="inlineStr"/>
       <c r="E11" t="n">
-        <v>623179.24</v>
+        <v>577590</v>
       </c>
       <c r="F11" t="n">
-        <v>606353.92</v>
+        <v>561390</v>
       </c>
       <c r="G11" t="n">
-        <v>775007.97</v>
+        <v>715720</v>
       </c>
       <c r="H11" t="n">
-        <v>185292.88</v>
+        <v>169200</v>
       </c>
       <c r="I11" t="n">
-        <v>42249.32</v>
+        <v>40200</v>
       </c>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="n">
-        <v>167537.73</v>
+        <v>153930</v>
       </c>
       <c r="L11" t="n">
-        <v>662026.14</v>
+        <v>614110</v>
       </c>
       <c r="M11" t="n">
-        <v>223209.95</v>
+        <v>206640</v>
       </c>
       <c r="N11" t="inlineStr"/>
       <c r="O11" t="inlineStr"/>
       <c r="P11" t="inlineStr"/>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="n">
-        <v>12133.06</v>
+        <v>11880</v>
       </c>
       <c r="S11" t="inlineStr"/>
       <c r="T11" t="n">
-        <v>829563.87</v>
+        <v>768030</v>
       </c>
       <c r="U11" t="inlineStr"/>
       <c r="V11" t="n">
-        <v>21091.75</v>
+        <v>21250</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>2018年</t>
+          <t>2020年</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>330</v>
+        <v>161.2</v>
       </c>
       <c r="C12" t="inlineStr"/>
       <c r="D12" t="inlineStr"/>
       <c r="E12" t="n">
-        <v>574460</v>
+        <v>210571.9</v>
       </c>
       <c r="F12" t="n">
-        <v>558710</v>
+        <v>202268</v>
       </c>
       <c r="G12" t="n">
-        <v>724120</v>
+        <v>300753.4</v>
       </c>
       <c r="H12" t="n">
-        <v>181990</v>
+        <v>100708.1</v>
       </c>
       <c r="I12" t="n">
-        <v>41430</v>
+        <v>19760.4</v>
       </c>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="n">
-        <v>163110</v>
+        <v>91124.89999999999</v>
       </c>
       <c r="L12" t="n">
-        <v>615860</v>
+        <v>234401.2</v>
       </c>
       <c r="M12" t="n">
-        <v>220270</v>
+        <v>123258.1</v>
       </c>
       <c r="N12" t="inlineStr"/>
       <c r="O12" t="inlineStr"/>
       <c r="P12" t="inlineStr"/>
       <c r="Q12" t="inlineStr"/>
       <c r="R12" t="n">
-        <v>13100</v>
+        <v>4851.1</v>
       </c>
       <c r="S12" t="inlineStr"/>
       <c r="T12" t="n">
-        <v>778980</v>
+        <v>325526.1</v>
       </c>
       <c r="U12" t="inlineStr"/>
       <c r="V12" t="n">
-        <v>22530</v>
+        <v>14246.2</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>2019年</t>
+          <t>2021年</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>230</v>
+        <v>28.4</v>
       </c>
       <c r="C13" t="inlineStr"/>
       <c r="D13" t="inlineStr"/>
       <c r="E13" t="n">
-        <v>577590</v>
+        <v>221884.6</v>
       </c>
       <c r="F13" t="n">
-        <v>561390</v>
+        <v>214036</v>
       </c>
       <c r="G13" t="n">
-        <v>715720</v>
+        <v>304072.8</v>
       </c>
       <c r="H13" t="n">
-        <v>169200</v>
+        <v>94560.89999999999</v>
       </c>
       <c r="I13" t="n">
-        <v>40200</v>
+        <v>17851.8</v>
       </c>
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="n">
-        <v>153930</v>
+        <v>116496.1</v>
       </c>
       <c r="L13" t="n">
-        <v>614110</v>
+        <v>211197.7</v>
       </c>
       <c r="M13" t="n">
-        <v>206640</v>
+        <v>113657.8</v>
       </c>
       <c r="N13" t="inlineStr"/>
       <c r="O13" t="inlineStr"/>
       <c r="P13" t="inlineStr"/>
       <c r="Q13" t="inlineStr"/>
       <c r="R13" t="n">
-        <v>11880</v>
+        <v>5740.8</v>
       </c>
       <c r="S13" t="inlineStr"/>
       <c r="T13" t="n">
-        <v>768030</v>
+        <v>327693.8</v>
       </c>
       <c r="U13" t="inlineStr"/>
       <c r="V13" t="n">
-        <v>21250</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>2020年</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>161.2</v>
-      </c>
-      <c r="C14" t="inlineStr"/>
-      <c r="D14" t="inlineStr"/>
-      <c r="E14" t="n">
-        <v>210571.9</v>
-      </c>
-      <c r="F14" t="n">
-        <v>202268</v>
-      </c>
-      <c r="G14" t="n">
-        <v>300753.4</v>
-      </c>
-      <c r="H14" t="n">
-        <v>100708.1</v>
-      </c>
-      <c r="I14" t="n">
-        <v>19760.4</v>
-      </c>
-      <c r="J14" t="inlineStr"/>
-      <c r="K14" t="n">
-        <v>91124.89999999999</v>
-      </c>
-      <c r="L14" t="n">
-        <v>234401.2</v>
-      </c>
-      <c r="M14" t="n">
-        <v>123258.1</v>
-      </c>
-      <c r="N14" t="inlineStr"/>
-      <c r="O14" t="inlineStr"/>
-      <c r="P14" t="inlineStr"/>
-      <c r="Q14" t="inlineStr"/>
-      <c r="R14" t="n">
-        <v>4851.1</v>
-      </c>
-      <c r="S14" t="inlineStr"/>
-      <c r="T14" t="n">
-        <v>325526.1</v>
-      </c>
-      <c r="U14" t="inlineStr"/>
-      <c r="V14" t="n">
-        <v>14246.2</v>
+        <v>11248.4</v>
       </c>
     </row>
   </sheetData>
